--- a/SCPNewViewAudioCredits.xlsx
+++ b/SCPNewViewAudioCredits.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor Egan\Documents\Unity Projects\SCPNewView\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects 2\SCPNewView\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F512C7-3352-47F0-AFD6-8C8265EE2036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C8C441-EE15-40A0-9226-1A72CC401259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91FDF34F-94DE-401F-AAA0-20DEB5B43DA1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>mrickey</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>https://freesound.org/people/SuperPhat/sounds/404562/</t>
+  </si>
+  <si>
+    <t>nioczkus</t>
+  </si>
+  <si>
+    <t>Holster Pistol</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/nioczkus/sounds/388819/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Clutvh/sounds/627087/</t>
+  </si>
+  <si>
+    <t>1911 supressed pistol shot</t>
+  </si>
+  <si>
+    <t>Clutvh</t>
   </si>
 </sst>
 </file>
@@ -434,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D6B021-4507-4C1D-B093-8CA02B985B99}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,6 +502,28 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
